--- a/po_analysis_by_asin/B0CLF23DXB_po_data.xlsx
+++ b/po_analysis_by_asin/B0CLF23DXB_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,47 +452,47 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45341</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45355</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45362</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45376</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45404</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45411</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>40</v>
@@ -500,23 +500,23 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45418</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45432</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45439</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>40</v>
@@ -524,31 +524,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45446</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45467</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45481</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45495</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>80</v>
@@ -556,23 +556,23 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45509</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45516</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45530</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>80</v>
@@ -580,23 +580,23 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45537</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45551</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45565</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>80</v>
@@ -604,17 +604,41 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45593</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45600</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B22" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B25" t="n">
         <v>40</v>
       </c>
     </row>
@@ -629,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,81 +675,97 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45597</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B13" t="n">
         <v>40</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CLF23DXB_po_data.xlsx
+++ b/po_analysis_by_asin/B0CLF23DXB_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,39 +484,39 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>40</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>40</v>
@@ -532,31 +532,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>80</v>
@@ -564,39 +564,39 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>80</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>80</v>
@@ -612,33 +612,17 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B24" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45606.99999999999</v>
-      </c>
-      <c r="B25" t="n">
         <v>40</v>
       </c>
     </row>
@@ -702,7 +686,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">

--- a/po_analysis_by_asin/B0CLF23DXB_po_data.xlsx
+++ b/po_analysis_by_asin/B0CLF23DXB_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -653,7 +654,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -751,6 +752,467 @@
       </c>
       <c r="B13" t="n">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>54</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.56122246714633</v>
+      </c>
+      <c r="D2" t="n">
+        <v>95.5280123400338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>54</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16.01039474724748</v>
+      </c>
+      <c r="D3" t="n">
+        <v>92.85033221222325</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>56</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14.25682420722001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>92.77656284944391</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>60</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20.76336610409046</v>
+      </c>
+      <c r="D5" t="n">
+        <v>99.67628148464055</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>62</v>
+      </c>
+      <c r="C6" t="n">
+        <v>22.03209808588715</v>
+      </c>
+      <c r="D6" t="n">
+        <v>102.9829143592871</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>64</v>
+      </c>
+      <c r="C7" t="n">
+        <v>21.80662240031462</v>
+      </c>
+      <c r="D7" t="n">
+        <v>100.8829341929647</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>64</v>
+      </c>
+      <c r="C8" t="n">
+        <v>23.8503325393999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>104.9419388402644</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>65</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24.8399517034643</v>
+      </c>
+      <c r="D9" t="n">
+        <v>105.3100170577122</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>65</v>
+      </c>
+      <c r="C10" t="n">
+        <v>21.74499861470627</v>
+      </c>
+      <c r="D10" t="n">
+        <v>104.5244714533646</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>66</v>
+      </c>
+      <c r="C11" t="n">
+        <v>24.35848410283221</v>
+      </c>
+      <c r="D11" t="n">
+        <v>102.9273776785368</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>66</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25.71196591466869</v>
+      </c>
+      <c r="D12" t="n">
+        <v>104.5255047357416</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>68</v>
+      </c>
+      <c r="C13" t="n">
+        <v>27.38416644493781</v>
+      </c>
+      <c r="D13" t="n">
+        <v>106.19636340965</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>68</v>
+      </c>
+      <c r="C14" t="n">
+        <v>27.2752734781396</v>
+      </c>
+      <c r="D14" t="n">
+        <v>109.5914535639036</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>69</v>
+      </c>
+      <c r="C15" t="n">
+        <v>27.68748650577826</v>
+      </c>
+      <c r="D15" t="n">
+        <v>109.8446004167103</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>70</v>
+      </c>
+      <c r="C16" t="n">
+        <v>28.77719306404674</v>
+      </c>
+      <c r="D16" t="n">
+        <v>111.2516366617079</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>70</v>
+      </c>
+      <c r="C17" t="n">
+        <v>28.08427750026384</v>
+      </c>
+      <c r="D17" t="n">
+        <v>111.9816253452518</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>71</v>
+      </c>
+      <c r="C18" t="n">
+        <v>29.70653448248467</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.0244261237793</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>72</v>
+      </c>
+      <c r="C19" t="n">
+        <v>34.07833647493734</v>
+      </c>
+      <c r="D19" t="n">
+        <v>112.7006524722513</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>72</v>
+      </c>
+      <c r="C20" t="n">
+        <v>32.56442390985968</v>
+      </c>
+      <c r="D20" t="n">
+        <v>113.7941741632276</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>73</v>
+      </c>
+      <c r="C21" t="n">
+        <v>32.45490165529502</v>
+      </c>
+      <c r="D21" t="n">
+        <v>112.8398516473206</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>75</v>
+      </c>
+      <c r="C22" t="n">
+        <v>33.23008030224883</v>
+      </c>
+      <c r="D22" t="n">
+        <v>115.8645732856123</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>75</v>
+      </c>
+      <c r="C23" t="n">
+        <v>34.29490009621964</v>
+      </c>
+      <c r="D23" t="n">
+        <v>115.0819619797318</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>76</v>
+      </c>
+      <c r="C24" t="n">
+        <v>33.27968250777142</v>
+      </c>
+      <c r="D24" t="n">
+        <v>117.9355904139861</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>76</v>
+      </c>
+      <c r="C25" t="n">
+        <v>34.58020741737104</v>
+      </c>
+      <c r="D25" t="n">
+        <v>119.8633617274456</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>77</v>
+      </c>
+      <c r="C26" t="n">
+        <v>37.49242536890365</v>
+      </c>
+      <c r="D26" t="n">
+        <v>115.2667975440535</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>77</v>
+      </c>
+      <c r="C27" t="n">
+        <v>33.09512195067553</v>
+      </c>
+      <c r="D27" t="n">
+        <v>119.5541231066535</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>77</v>
+      </c>
+      <c r="C28" t="n">
+        <v>37.56791917863551</v>
+      </c>
+      <c r="D28" t="n">
+        <v>119.1095770395338</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>78</v>
+      </c>
+      <c r="C29" t="n">
+        <v>39.81153701808856</v>
+      </c>
+      <c r="D29" t="n">
+        <v>117.0431588991999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>78</v>
+      </c>
+      <c r="C30" t="n">
+        <v>36.45188856131641</v>
+      </c>
+      <c r="D30" t="n">
+        <v>121.2754429153082</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>79</v>
+      </c>
+      <c r="C31" t="n">
+        <v>40.16423706158076</v>
+      </c>
+      <c r="D31" t="n">
+        <v>118.7670735865966</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CLF23DXB_po_data.xlsx
+++ b/po_analysis_by_asin/B0CLF23DXB_po_data.xlsx
@@ -765,7 +765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,16 +784,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -802,12 +792,6 @@
       <c r="B2" t="n">
         <v>54</v>
       </c>
-      <c r="C2" t="n">
-        <v>10.56122246714633</v>
-      </c>
-      <c r="D2" t="n">
-        <v>95.5280123400338</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -816,12 +800,6 @@
       <c r="B3" t="n">
         <v>54</v>
       </c>
-      <c r="C3" t="n">
-        <v>16.01039474724748</v>
-      </c>
-      <c r="D3" t="n">
-        <v>92.85033221222325</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -830,12 +808,6 @@
       <c r="B4" t="n">
         <v>56</v>
       </c>
-      <c r="C4" t="n">
-        <v>14.25682420722001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92.77656284944391</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -844,12 +816,6 @@
       <c r="B5" t="n">
         <v>60</v>
       </c>
-      <c r="C5" t="n">
-        <v>20.76336610409046</v>
-      </c>
-      <c r="D5" t="n">
-        <v>99.67628148464055</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -858,12 +824,6 @@
       <c r="B6" t="n">
         <v>62</v>
       </c>
-      <c r="C6" t="n">
-        <v>22.03209808588715</v>
-      </c>
-      <c r="D6" t="n">
-        <v>102.9829143592871</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -872,12 +832,6 @@
       <c r="B7" t="n">
         <v>64</v>
       </c>
-      <c r="C7" t="n">
-        <v>21.80662240031462</v>
-      </c>
-      <c r="D7" t="n">
-        <v>100.8829341929647</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -886,12 +840,6 @@
       <c r="B8" t="n">
         <v>64</v>
       </c>
-      <c r="C8" t="n">
-        <v>23.8503325393999</v>
-      </c>
-      <c r="D8" t="n">
-        <v>104.9419388402644</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -900,12 +848,6 @@
       <c r="B9" t="n">
         <v>65</v>
       </c>
-      <c r="C9" t="n">
-        <v>24.8399517034643</v>
-      </c>
-      <c r="D9" t="n">
-        <v>105.3100170577122</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -914,12 +856,6 @@
       <c r="B10" t="n">
         <v>65</v>
       </c>
-      <c r="C10" t="n">
-        <v>21.74499861470627</v>
-      </c>
-      <c r="D10" t="n">
-        <v>104.5244714533646</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -928,12 +864,6 @@
       <c r="B11" t="n">
         <v>66</v>
       </c>
-      <c r="C11" t="n">
-        <v>24.35848410283221</v>
-      </c>
-      <c r="D11" t="n">
-        <v>102.9273776785368</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -942,12 +872,6 @@
       <c r="B12" t="n">
         <v>66</v>
       </c>
-      <c r="C12" t="n">
-        <v>25.71196591466869</v>
-      </c>
-      <c r="D12" t="n">
-        <v>104.5255047357416</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -956,12 +880,6 @@
       <c r="B13" t="n">
         <v>68</v>
       </c>
-      <c r="C13" t="n">
-        <v>27.38416644493781</v>
-      </c>
-      <c r="D13" t="n">
-        <v>106.19636340965</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -970,12 +888,6 @@
       <c r="B14" t="n">
         <v>68</v>
       </c>
-      <c r="C14" t="n">
-        <v>27.2752734781396</v>
-      </c>
-      <c r="D14" t="n">
-        <v>109.5914535639036</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -984,12 +896,6 @@
       <c r="B15" t="n">
         <v>69</v>
       </c>
-      <c r="C15" t="n">
-        <v>27.68748650577826</v>
-      </c>
-      <c r="D15" t="n">
-        <v>109.8446004167103</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -998,12 +904,6 @@
       <c r="B16" t="n">
         <v>70</v>
       </c>
-      <c r="C16" t="n">
-        <v>28.77719306404674</v>
-      </c>
-      <c r="D16" t="n">
-        <v>111.2516366617079</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1012,12 +912,6 @@
       <c r="B17" t="n">
         <v>70</v>
       </c>
-      <c r="C17" t="n">
-        <v>28.08427750026384</v>
-      </c>
-      <c r="D17" t="n">
-        <v>111.9816253452518</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1026,12 +920,6 @@
       <c r="B18" t="n">
         <v>71</v>
       </c>
-      <c r="C18" t="n">
-        <v>29.70653448248467</v>
-      </c>
-      <c r="D18" t="n">
-        <v>114.0244261237793</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1040,12 +928,6 @@
       <c r="B19" t="n">
         <v>72</v>
       </c>
-      <c r="C19" t="n">
-        <v>34.07833647493734</v>
-      </c>
-      <c r="D19" t="n">
-        <v>112.7006524722513</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1054,12 +936,6 @@
       <c r="B20" t="n">
         <v>72</v>
       </c>
-      <c r="C20" t="n">
-        <v>32.56442390985968</v>
-      </c>
-      <c r="D20" t="n">
-        <v>113.7941741632276</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1068,12 +944,6 @@
       <c r="B21" t="n">
         <v>73</v>
       </c>
-      <c r="C21" t="n">
-        <v>32.45490165529502</v>
-      </c>
-      <c r="D21" t="n">
-        <v>112.8398516473206</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1082,12 +952,6 @@
       <c r="B22" t="n">
         <v>75</v>
       </c>
-      <c r="C22" t="n">
-        <v>33.23008030224883</v>
-      </c>
-      <c r="D22" t="n">
-        <v>115.8645732856123</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1096,12 +960,6 @@
       <c r="B23" t="n">
         <v>75</v>
       </c>
-      <c r="C23" t="n">
-        <v>34.29490009621964</v>
-      </c>
-      <c r="D23" t="n">
-        <v>115.0819619797318</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1110,12 +968,6 @@
       <c r="B24" t="n">
         <v>76</v>
       </c>
-      <c r="C24" t="n">
-        <v>33.27968250777142</v>
-      </c>
-      <c r="D24" t="n">
-        <v>117.9355904139861</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1124,12 +976,6 @@
       <c r="B25" t="n">
         <v>76</v>
       </c>
-      <c r="C25" t="n">
-        <v>34.58020741737104</v>
-      </c>
-      <c r="D25" t="n">
-        <v>119.8633617274456</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1138,12 +984,6 @@
       <c r="B26" t="n">
         <v>77</v>
       </c>
-      <c r="C26" t="n">
-        <v>37.49242536890365</v>
-      </c>
-      <c r="D26" t="n">
-        <v>115.2667975440535</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1152,12 +992,6 @@
       <c r="B27" t="n">
         <v>77</v>
       </c>
-      <c r="C27" t="n">
-        <v>33.09512195067553</v>
-      </c>
-      <c r="D27" t="n">
-        <v>119.5541231066535</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1166,12 +1000,6 @@
       <c r="B28" t="n">
         <v>77</v>
       </c>
-      <c r="C28" t="n">
-        <v>37.56791917863551</v>
-      </c>
-      <c r="D28" t="n">
-        <v>119.1095770395338</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1180,12 +1008,6 @@
       <c r="B29" t="n">
         <v>78</v>
       </c>
-      <c r="C29" t="n">
-        <v>39.81153701808856</v>
-      </c>
-      <c r="D29" t="n">
-        <v>117.0431588991999</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1194,12 +1016,6 @@
       <c r="B30" t="n">
         <v>78</v>
       </c>
-      <c r="C30" t="n">
-        <v>36.45188856131641</v>
-      </c>
-      <c r="D30" t="n">
-        <v>121.2754429153082</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1207,12 +1023,6 @@
       </c>
       <c r="B31" t="n">
         <v>79</v>
-      </c>
-      <c r="C31" t="n">
-        <v>40.16423706158076</v>
-      </c>
-      <c r="D31" t="n">
-        <v>118.7670735865966</v>
       </c>
     </row>
   </sheetData>
